--- a/spa/admin/export.xlsx
+++ b/spa/admin/export.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Khách hàng" sheetId="1" r:id="rId4"/>
+    <sheet name="Dịch vụ" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>THẨM MỸ VIỆN - CHUYÊN GIA LÀM ĐẸP</t>
   </si>
@@ -26,124 +26,103 @@
     <t>Số điện thoại : 0347689482</t>
   </si>
   <si>
-    <t>DANH SÁCH KHÁCH HÀNG</t>
+    <t>DANH SÁCH DỊCH VỤ</t>
   </si>
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Số cuộc hẹn</t>
-  </si>
-  <si>
-    <t>Tên khách hàng</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Số điện thoại</t>
-  </si>
-  <si>
-    <t>Ngày hẹn</t>
-  </si>
-  <si>
-    <t>Giờ hẹn</t>
-  </si>
-  <si>
-    <t>Dịch vụ</t>
-  </si>
-  <si>
-    <t>Ngày thực hiện</t>
-  </si>
-  <si>
-    <t>Trạng thái</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>hoangvuong1225@gmail.com</t>
-  </si>
-  <si>
-    <t>6/2/2021</t>
-  </si>
-  <si>
-    <t>12:30am</t>
+    <t>Tên dịch vụ</t>
+  </si>
+  <si>
+    <t>Chi phí</t>
+  </si>
+  <si>
+    <t>Ngày tạo</t>
+  </si>
+  <si>
+    <t>O3 Facial1</t>
+  </si>
+  <si>
+    <t>2019-07-25 18:22:38</t>
+  </si>
+  <si>
+    <t>Fruit Facial</t>
+  </si>
+  <si>
+    <t>2019-07-25 18:22:53</t>
   </si>
   <si>
     <t>Charcol Facial</t>
   </si>
   <si>
-    <t>2021-05-14 09:41:25</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>12:00am</t>
-  </si>
-  <si>
-    <t>2021-05-14 09:42:28</t>
-  </si>
-  <si>
-    <t>bca</t>
-  </si>
-  <si>
-    <t>5/18/2021</t>
+    <t>2019-07-25 18:23:10</t>
+  </si>
+  <si>
+    <t>Deluxe Menicure</t>
+  </si>
+  <si>
+    <t>2019-07-25 18:23:34</t>
+  </si>
+  <si>
+    <t>Deluxe Pedicure</t>
+  </si>
+  <si>
+    <t>2019-07-25 18:23:47</t>
+  </si>
+  <si>
+    <t>Normal Menicure</t>
+  </si>
+  <si>
+    <t>2019-07-25 18:24:01</t>
+  </si>
+  <si>
+    <t>Normal Pedicure</t>
+  </si>
+  <si>
+    <t>2019-07-25 18:24:19</t>
+  </si>
+  <si>
+    <t>U-Shape Hair Cut</t>
+  </si>
+  <si>
+    <t>2019-07-25 18:24:38</t>
+  </si>
+  <si>
+    <t>Layer Haircut</t>
+  </si>
+  <si>
+    <t>2019-07-25 18:24:53</t>
+  </si>
+  <si>
+    <t>Rebonding</t>
+  </si>
+  <si>
+    <t>2019-07-25 18:25:08</t>
+  </si>
+  <si>
+    <t>Loreal Hair Color(Full)</t>
+  </si>
+  <si>
+    <t>2019-07-25 18:25:35</t>
+  </si>
+  <si>
+    <t>Body Spa</t>
+  </si>
+  <si>
+    <t>2019-08-19 20:36:27</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>2021-05-14 09:45:51</t>
-  </si>
-  <si>
-    <t>Nguyá»…n HoÃ ng VÆ°Æ¡ng</t>
-  </si>
-  <si>
-    <t>5/28/2021</t>
-  </si>
-  <si>
-    <t>7:00am</t>
-  </si>
-  <si>
-    <t>Body Spa</t>
-  </si>
-  <si>
-    <t>2021-05-16 21:23:04</t>
-  </si>
-  <si>
-    <t>5/12/2021</t>
-  </si>
-  <si>
-    <t>Fruit Facial</t>
-  </si>
-  <si>
-    <t>2021-05-17 13:21:20</t>
-  </si>
-  <si>
-    <t>Rebonding</t>
-  </si>
-  <si>
-    <t>2021-05-22 23:00:14</t>
-  </si>
-  <si>
-    <t>5/20/2021</t>
-  </si>
-  <si>
-    <t>1:00am</t>
-  </si>
-  <si>
-    <t>Massage</t>
-  </si>
-  <si>
-    <t>2021-05-27 12:59:56</t>
-  </si>
-  <si>
-    <t>1:30am</t>
-  </si>
-  <si>
-    <t>2021-06-01 10:09:26</t>
+    <t>2019-08-21 22:45:50</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>2019-08-21 23:23:23</t>
   </si>
 </sst>
 </file>
@@ -542,7 +521,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6"/>
@@ -551,32 +530,27 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15" customWidth="true" style="0"/>
-    <col min="3" max="3" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="25" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12" customWidth="true" style="0"/>
     <col min="4" max="4" width="25" customWidth="true" style="0"/>
-    <col min="5" max="5" width="15" customWidth="true" style="0"/>
-    <col min="6" max="6" width="15" customWidth="true" style="0"/>
-    <col min="8" max="8" width="15" customWidth="true" style="0"/>
-    <col min="9" max="9" width="19" customWidth="true" style="0"/>
-    <col min="10" max="10" width="12" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -589,7 +563,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -602,285 +576,207 @@
       <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9">
-        <v>945550275</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>12000</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>1647689482</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10">
-        <v>122585053</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>500</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>1647689482</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11">
-        <v>916248641</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>1647689482</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12">
-        <v>977764536</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>500</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12">
-        <v>1647689482</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13">
-        <v>813516023</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>600</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>1647689482</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
         <v>17</v>
       </c>
-      <c r="H13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14">
-        <v>344293199</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>300</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>1647689482</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15">
-        <v>241109324</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>400</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>1647689482</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16">
-        <v>779656121</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>250</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>550</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>39999</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>1647689482</v>
-      </c>
-      <c r="F16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>1200</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>1500</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>200</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spa/admin/export.xlsx
+++ b/spa/admin/export.xlsx
@@ -41,88 +41,88 @@
     <t>Ngày tạo</t>
   </si>
   <si>
-    <t>O3 Facial1</t>
+    <t>ChÄƒm sÃ³c da/Massage cÆ¡ báº£n</t>
   </si>
   <si>
     <t>2019-07-25 18:22:38</t>
   </si>
   <si>
-    <t>Fruit Facial</t>
+    <t>Tháº£i Ä‘á»™c chÃ¬</t>
   </si>
   <si>
     <t>2019-07-25 18:22:53</t>
   </si>
   <si>
-    <t>Charcol Facial</t>
+    <t>ChÄƒm sÃ³c da Vitamin C</t>
   </si>
   <si>
     <t>2019-07-25 18:23:10</t>
   </si>
   <si>
-    <t>Deluxe Menicure</t>
+    <t>Cáº¥y táº£o tÆ°Æ¡i Nháº­t Báº£n</t>
   </si>
   <si>
     <t>2019-07-25 18:23:34</t>
   </si>
   <si>
-    <t>Deluxe Pedicure</t>
+    <t>Háº¥p tráº¯ng máº·t Gold Liquid</t>
   </si>
   <si>
     <t>2019-07-25 18:23:47</t>
   </si>
   <si>
-    <t>Normal Menicure</t>
+    <t>XÃ³a nhÄƒn cÄƒng da</t>
   </si>
   <si>
     <t>2019-07-25 18:24:01</t>
   </si>
   <si>
-    <t>Normal Pedicure</t>
+    <t>Háº¥p tráº¯ng máº·t tháº£o má»™c hoÃ ng cung</t>
   </si>
   <si>
     <t>2019-07-25 18:24:19</t>
   </si>
   <si>
-    <t>U-Shape Hair Cut</t>
+    <t>Phi kim cáº¥y DNA cÃ¡ há»“i tráº» hÃ³a</t>
   </si>
   <si>
     <t>2019-07-25 18:24:38</t>
   </si>
   <si>
-    <t>Layer Haircut</t>
+    <t>Trá»‹ má»¥n chuyÃªn sÃ¢u</t>
   </si>
   <si>
     <t>2019-07-25 18:24:53</t>
   </si>
   <si>
-    <t>Rebonding</t>
+    <t>Vi kiá»ƒm táº£o biá»ƒn trá»‹ má»¥n</t>
   </si>
   <si>
     <t>2019-07-25 18:25:08</t>
   </si>
   <si>
-    <t>Loreal Hair Color(Full)</t>
+    <t>Táº©y táº¿ bÃ o cháº¿t vá»›i muá»‘i cÃ¡t, cafe, dá»«a, trÃ  , dáº§u oil</t>
   </si>
   <si>
     <t>2019-07-25 18:25:35</t>
   </si>
   <si>
-    <t>Body Spa</t>
+    <t>Táº¯m tráº¯ng</t>
   </si>
   <si>
     <t>2019-08-19 20:36:27</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>Wax</t>
   </si>
   <si>
     <t>2019-08-21 22:45:50</t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>2019-08-21 23:23:23</t>
+    <t>Thanh táº©y vÃ  sÃ¡ng má»‹n da vá»›i kem sá»¯a</t>
+  </si>
+  <si>
+    <t>2021-06-08 09:02:15</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -599,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>500</v>
+        <v>250000</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -613,7 +613,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>1000</v>
+        <v>300000</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -627,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>500</v>
+        <v>300000</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -641,7 +641,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>600</v>
+        <v>400000</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -655,7 +655,7 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>300</v>
+        <v>500000</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -669,7 +669,7 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>400</v>
+        <v>600000</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -683,7 +683,7 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>250</v>
+        <v>900000</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -697,7 +697,7 @@
         <v>24</v>
       </c>
       <c r="C17">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
@@ -711,7 +711,7 @@
         <v>26</v>
       </c>
       <c r="C18">
-        <v>39999</v>
+        <v>1200000</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -725,7 +725,7 @@
         <v>28</v>
       </c>
       <c r="C19">
-        <v>1200</v>
+        <v>100000</v>
       </c>
       <c r="D19" t="s">
         <v>29</v>
@@ -739,7 +739,7 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>1500</v>
+        <v>350000</v>
       </c>
       <c r="D20" t="s">
         <v>31</v>
@@ -753,7 +753,7 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>110000</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
@@ -767,7 +767,7 @@
         <v>34</v>
       </c>
       <c r="C22">
-        <v>200</v>
+        <v>150000</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
